--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
@@ -408,10 +408,10 @@
         <v>6.097502755394054</v>
       </c>
       <c r="C3">
-        <v>5.735379138762115</v>
+        <v>5.735379138762113</v>
       </c>
       <c r="D3">
-        <v>5.90332082532357</v>
+        <v>5.903320825323572</v>
       </c>
       <c r="E3">
         <v>5.676106287043186</v>
@@ -493,7 +493,7 @@
         <v>175.6990057879628</v>
       </c>
       <c r="C8">
-        <v>147.8918719476863</v>
+        <v>147.8918719476862</v>
       </c>
       <c r="D8">
         <v>123.8235396557551</v>
@@ -510,10 +510,10 @@
         <v>114.6880103829942</v>
       </c>
       <c r="C9">
-        <v>112.5658351160638</v>
+        <v>112.5658351160637</v>
       </c>
       <c r="D9">
-        <v>81.11432209637118</v>
+        <v>81.1143220963712</v>
       </c>
       <c r="E9">
         <v>35.76516171801867</v>
@@ -527,10 +527,10 @@
         <v>65.07370584739365</v>
       </c>
       <c r="C10">
-        <v>82.79416762883292</v>
+        <v>82.79416762883289</v>
       </c>
       <c r="D10">
-        <v>59.9566613069972</v>
+        <v>59.95666130699721</v>
       </c>
       <c r="E10">
         <v>18.33705541507198</v>
@@ -544,10 +544,10 @@
         <v>57.84329408657213</v>
       </c>
       <c r="C11">
-        <v>55.61745611707861</v>
+        <v>55.61745611707858</v>
       </c>
       <c r="D11">
-        <v>41.70898177878066</v>
+        <v>41.70898177878068</v>
       </c>
       <c r="E11">
         <v>19.69535581618842</v>
@@ -561,7 +561,7 @@
         <v>15.81639324007045</v>
       </c>
       <c r="C12">
-        <v>9.324894251576639</v>
+        <v>9.324894251576637</v>
       </c>
       <c r="D12">
         <v>11.08315497940792</v>
@@ -578,10 +578,10 @@
         <v>68.42753092164438</v>
       </c>
       <c r="C13">
-        <v>67.67747383739295</v>
+        <v>67.67747383739294</v>
       </c>
       <c r="D13">
-        <v>74.97217448160934</v>
+        <v>74.97217448160936</v>
       </c>
       <c r="E13">
         <v>79.4654880186046</v>
@@ -595,13 +595,13 @@
         <v>18.87763064137441</v>
       </c>
       <c r="C14">
-        <v>21.61680031047312</v>
+        <v>21.61680031047311</v>
       </c>
       <c r="D14">
         <v>29.25952914563692</v>
       </c>
       <c r="E14">
-        <v>40.85563802814965</v>
+        <v>40.85563802814964</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,10 +612,10 @@
         <v>85.3188587776939</v>
       </c>
       <c r="C15">
-        <v>70.78585323991823</v>
+        <v>70.78585323991818</v>
       </c>
       <c r="D15">
-        <v>73.64242095315961</v>
+        <v>73.64242095315963</v>
       </c>
       <c r="E15">
         <v>81.49802406698657</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>147.7872452221909</v>
+        <v>147.787245222191</v>
       </c>
       <c r="C16">
         <v>138.3084248077227</v>
@@ -646,13 +646,13 @@
         <v>38.26546751629947</v>
       </c>
       <c r="C17">
-        <v>32.63712988051824</v>
+        <v>32.63712988051823</v>
       </c>
       <c r="D17">
         <v>31.91948634069482</v>
       </c>
       <c r="E17">
-        <v>30.28123759733445</v>
+        <v>30.28123759733444</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,10 +663,10 @@
         <v>42.68251928775837</v>
       </c>
       <c r="C18">
-        <v>36.70642648807754</v>
+        <v>36.70642648807753</v>
       </c>
       <c r="D18">
-        <v>43.09424202486207</v>
+        <v>43.09424202486208</v>
       </c>
       <c r="E18">
         <v>59.91445525212251</v>
@@ -697,10 +697,10 @@
         <v>71.81629185496027</v>
       </c>
       <c r="C20">
-        <v>63.83465760356432</v>
+        <v>63.83465760356431</v>
       </c>
       <c r="D20">
-        <v>66.51634471996245</v>
+        <v>66.51634471996246</v>
       </c>
       <c r="E20">
         <v>69.28544585004667</v>
@@ -720,7 +720,7 @@
         <v>53.52487114184479</v>
       </c>
       <c r="E21">
-        <v>30.85367510509891</v>
+        <v>30.8536751050989</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7.865632837191541</v>
+        <v>7.865632837191539</v>
       </c>
       <c r="C22">
-        <v>6.057076270894408</v>
+        <v>6.057076270894409</v>
       </c>
       <c r="D22">
         <v>9.129787247162675</v>
@@ -748,13 +748,13 @@
         <v>7.267687564496265</v>
       </c>
       <c r="C23">
-        <v>9.270358227261539</v>
+        <v>9.270358227261536</v>
       </c>
       <c r="D23">
-        <v>9.47860425438575</v>
+        <v>9.478604254385752</v>
       </c>
       <c r="E23">
-        <v>7.077521587838089</v>
+        <v>7.077521587838088</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>83.19016552841659</v>
+        <v>83.1901655284166</v>
       </c>
       <c r="C24">
         <v>73.56671516499802</v>
@@ -805,7 +805,7 @@
         <v>0.3235537460225449</v>
       </c>
       <c r="E26">
-        <v>0.3572401108653931</v>
+        <v>0.357240110865393</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>30.57710626324128</v>
+        <v>30.57710626324129</v>
       </c>
       <c r="C27">
         <v>28.67167992231714</v>
@@ -822,7 +822,7 @@
         <v>33.9849938599763</v>
       </c>
       <c r="E27">
-        <v>37.42311602193593</v>
+        <v>37.42311602193592</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -836,7 +836,7 @@
         <v>19.90151900490249</v>
       </c>
       <c r="D28">
-        <v>22.39920049862074</v>
+        <v>22.39920049862075</v>
       </c>
       <c r="E28">
         <v>20.64723642589568</v>
@@ -853,7 +853,7 @@
         <v>12.48061361324393</v>
       </c>
       <c r="D29">
-        <v>9.654827801129629</v>
+        <v>9.654827801129631</v>
       </c>
       <c r="E29">
         <v>3.441206070982614</v>
@@ -887,7 +887,7 @@
         <v>309.7312556841217</v>
       </c>
       <c r="D31">
-        <v>272.2899875153847</v>
+        <v>272.2899875153848</v>
       </c>
       <c r="E31">
         <v>144.9218463290804</v>
@@ -907,7 +907,7 @@
         <v>150.3740602973855</v>
       </c>
       <c r="E32">
-        <v>223.8335111625617</v>
+        <v>223.8335111625616</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,7 +935,7 @@
         <v>10.07448721408717</v>
       </c>
       <c r="C34">
-        <v>6.486405823032274</v>
+        <v>6.486405823032273</v>
       </c>
       <c r="D34">
         <v>10.38043174552478</v>
@@ -969,7 +969,7 @@
         <v>324.2855400574851</v>
       </c>
       <c r="C36">
-        <v>376.4915991676372</v>
+        <v>376.491599167637</v>
       </c>
       <c r="D36">
         <v>451.6477832585948</v>
@@ -986,13 +986,13 @@
         <v>543.7640305326297</v>
       </c>
       <c r="C37">
-        <v>676.2703218234259</v>
+        <v>676.2703218234258</v>
       </c>
       <c r="D37">
         <v>571.8826933719946</v>
       </c>
       <c r="E37">
-        <v>285.9333515164439</v>
+        <v>285.933351516444</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,7 +1003,7 @@
         <v>575.3559548417437</v>
       </c>
       <c r="C38">
-        <v>571.6325069854173</v>
+        <v>571.6325069854172</v>
       </c>
       <c r="D38">
         <v>551.9911214286208</v>
@@ -1054,7 +1054,7 @@
         <v>0.6938579934704601</v>
       </c>
       <c r="C41">
-        <v>0.673902301017607</v>
+        <v>0.6739023010176068</v>
       </c>
       <c r="D41">
         <v>0.7393255412338775</v>
@@ -1108,7 +1108,7 @@
         <v>73.78412426165355</v>
       </c>
       <c r="D44">
-        <v>91.70734390459356</v>
+        <v>91.70734390459353</v>
       </c>
       <c r="E44">
         <v>115.0995817717071</v>
@@ -1139,7 +1139,7 @@
         <v>158.252435997444</v>
       </c>
       <c r="C46">
-        <v>172.8740528741259</v>
+        <v>172.8740528741258</v>
       </c>
       <c r="D46">
         <v>194.7957146210132</v>
@@ -1196,7 +1196,7 @@
         <v>538.6585740900616</v>
       </c>
       <c r="E49">
-        <v>424.8148867486529</v>
+        <v>424.8148867486528</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1295,7 +1295,7 @@
         <v>83.52334492714364</v>
       </c>
       <c r="D55">
-        <v>97.34633440701606</v>
+        <v>97.34633440701609</v>
       </c>
       <c r="E55">
         <v>95.51847374959814</v>
@@ -1315,7 +1315,7 @@
         <v>34.31590436792478</v>
       </c>
       <c r="E56">
-        <v>58.71020472512302</v>
+        <v>58.71020472512301</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1329,7 +1329,7 @@
         <v>193.8147666453987</v>
       </c>
       <c r="D57">
-        <v>229.0481095727439</v>
+        <v>229.048109572744</v>
       </c>
       <c r="E57">
         <v>295.6394579858927</v>
@@ -1340,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>78.44429354105162</v>
+        <v>78.44429354105164</v>
       </c>
       <c r="C58">
         <v>74.21190994282465</v>
@@ -1357,7 +1357,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>17.03066899246515</v>
+        <v>17.03066899246516</v>
       </c>
       <c r="C59">
         <v>14.48037267177066</v>
@@ -1380,10 +1380,10 @@
         <v>132.9399935713444</v>
       </c>
       <c r="D60">
-        <v>118.8238681863226</v>
+        <v>118.8238681863227</v>
       </c>
       <c r="E60">
-        <v>89.29959058169028</v>
+        <v>89.29959058169027</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,13 +1391,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>41.32725299383939</v>
+        <v>41.32725299383938</v>
       </c>
       <c r="C61">
-        <v>37.74426953156261</v>
+        <v>37.74426953156262</v>
       </c>
       <c r="D61">
-        <v>40.27363599592448</v>
+        <v>40.27363599592449</v>
       </c>
       <c r="E61">
         <v>46.27671090873019</v>
@@ -1408,16 +1408,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>48.4379528427238</v>
+        <v>48.43795284272379</v>
       </c>
       <c r="C62">
         <v>44.23842257409967</v>
       </c>
       <c r="D62">
-        <v>42.75636120371315</v>
+        <v>42.75636120371316</v>
       </c>
       <c r="E62">
-        <v>37.70213567798971</v>
+        <v>37.7021356779897</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>16.55761046614382</v>
       </c>
       <c r="E63">
-        <v>18.49980570534899</v>
+        <v>18.49980570534898</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1459,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7.578834336504853</v>
+        <v>7.578834336504851</v>
       </c>
       <c r="C65">
         <v>3.823615233993493</v>
@@ -1499,7 +1499,7 @@
         <v>39.12877003736589</v>
       </c>
       <c r="D67">
-        <v>50.65590979773586</v>
+        <v>50.65590979773587</v>
       </c>
       <c r="E67">
         <v>112.380825442784</v>
@@ -1516,7 +1516,7 @@
         <v>206.4468864650477</v>
       </c>
       <c r="D68">
-        <v>182.3946609803879</v>
+        <v>182.394660980388</v>
       </c>
       <c r="E68">
         <v>121.8909863071257</v>
@@ -1533,7 +1533,7 @@
         <v>148.6893261419904</v>
       </c>
       <c r="D69">
-        <v>149.6116405654059</v>
+        <v>149.611640565406</v>
       </c>
       <c r="E69">
         <v>141.8949816196768</v>
@@ -1550,7 +1550,7 @@
         <v>71.63574822225449</v>
       </c>
       <c r="D70">
-        <v>74.80582028270295</v>
+        <v>74.80582028270297</v>
       </c>
       <c r="E70">
         <v>82.86666926589125</v>
@@ -1570,7 +1570,7 @@
         <v>7.758509421165424</v>
       </c>
       <c r="E71">
-        <v>8.233241405705245</v>
+        <v>8.233241405705247</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
         <v>86.08329408220496</v>
       </c>
       <c r="D76">
-        <v>98.36670856071963</v>
+        <v>98.36670856071964</v>
       </c>
       <c r="E76">
         <v>107.8401860309544</v>
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>131.3273488939922</v>
+        <v>131.3273488939923</v>
       </c>
       <c r="C77">
         <v>117.669621213965</v>
@@ -1672,7 +1672,7 @@
         <v>119.7808081113154</v>
       </c>
       <c r="E77">
-        <v>117.2890718060974</v>
+        <v>117.2890718060975</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1734,7 +1734,7 @@
         <v>87.28604021329127</v>
       </c>
       <c r="C81">
-        <v>91.30589458805314</v>
+        <v>91.30589458805311</v>
       </c>
       <c r="D81">
         <v>121.854898548555</v>
@@ -1751,10 +1751,10 @@
         <v>10.32970890098121</v>
       </c>
       <c r="C82">
-        <v>8.623334488871684</v>
+        <v>8.623334488871683</v>
       </c>
       <c r="D82">
-        <v>11.57621536211273</v>
+        <v>11.57621536211272</v>
       </c>
       <c r="E82">
         <v>17.02125683432627</v>
@@ -1768,7 +1768,7 @@
         <v>110.3478586988206</v>
       </c>
       <c r="C83">
-        <v>95.67736780872603</v>
+        <v>95.67736780872605</v>
       </c>
       <c r="D83">
         <v>102.2834905886414</v>
@@ -1782,7 +1782,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>24.94821153190726</v>
+        <v>24.94821153190727</v>
       </c>
       <c r="C84">
         <v>20.05464478086834</v>
@@ -1791,7 +1791,7 @@
         <v>23.86614780401634</v>
       </c>
       <c r="E84">
-        <v>33.3206786110891</v>
+        <v>33.32067861108911</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1856,7 +1856,7 @@
         <v>2.929929405297722</v>
       </c>
       <c r="D88">
-        <v>5.354139777477575</v>
+        <v>5.354139777477576</v>
       </c>
       <c r="E88">
         <v>18.97090891640896</v>
@@ -1884,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1130.688197436537</v>
+        <v>1130.688197436538</v>
       </c>
       <c r="C90">
         <v>1121.322920187891</v>
@@ -1904,7 +1904,7 @@
         <v>672.5738912546353</v>
       </c>
       <c r="C91">
-        <v>698.2347524519556</v>
+        <v>698.2347524519555</v>
       </c>
       <c r="D91">
         <v>901.934158094115</v>
@@ -1944,7 +1944,7 @@
         <v>67.79669609640538</v>
       </c>
       <c r="E93">
-        <v>67.31194106438386</v>
+        <v>67.31194106438389</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1955,7 +1955,7 @@
         <v>234.9169275820433</v>
       </c>
       <c r="C94">
-        <v>274.2664243299002</v>
+        <v>274.2664243299001</v>
       </c>
       <c r="D94">
         <v>178.3465622570277</v>
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>516.1921151267658</v>
+        <v>516.1921151267659</v>
       </c>
       <c r="C96">
-        <v>528.8320477276297</v>
+        <v>528.8320477276296</v>
       </c>
       <c r="D96">
         <v>573.109231473762</v>
@@ -2003,7 +2003,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>207.4415720466202</v>
+        <v>207.4415720466203</v>
       </c>
       <c r="C97">
         <v>150.4934122833118</v>
@@ -2040,7 +2040,7 @@
         <v>292.054329783384</v>
       </c>
       <c r="C99">
-        <v>310.395240949155</v>
+        <v>310.3952409491549</v>
       </c>
       <c r="D99">
         <v>350.5113006789655</v>
@@ -2074,7 +2074,7 @@
         <v>126.152659076482</v>
       </c>
       <c r="C101">
-        <v>142.5943850366445</v>
+        <v>142.5943850366444</v>
       </c>
       <c r="D101">
         <v>179.6840015134375</v>
@@ -2094,7 +2094,7 @@
         <v>25.58976103515236</v>
       </c>
       <c r="D102">
-        <v>35.18321704901726</v>
+        <v>35.18321704901727</v>
       </c>
       <c r="E102">
         <v>131.6560868684476</v>
@@ -2122,7 +2122,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>602.6853547756056</v>
+        <v>602.6853547756054</v>
       </c>
       <c r="C104">
         <v>559.3708685227115</v>
@@ -2131,7 +2131,7 @@
         <v>673.4034257207014</v>
       </c>
       <c r="E104">
-        <v>938.6025043776573</v>
+        <v>938.6025043776576</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>72.56219619026504</v>
+        <v>72.56219619026503</v>
       </c>
       <c r="C106">
         <v>34.80597188578886</v>
@@ -2182,7 +2182,7 @@
         <v>177.2456040620058</v>
       </c>
       <c r="E107">
-        <v>494.8517607246526</v>
+        <v>494.8517607246528</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2210,7 +2210,7 @@
         <v>129.1403338700768</v>
       </c>
       <c r="C109">
-        <v>135.5293034200193</v>
+        <v>135.5293034200192</v>
       </c>
       <c r="D109">
         <v>205.3557136889432</v>
@@ -2244,7 +2244,7 @@
         <v>516.3182092914682</v>
       </c>
       <c r="C111">
-        <v>595.2142209581665</v>
+        <v>595.2142209581663</v>
       </c>
       <c r="D111">
         <v>578.7221839905361</v>
@@ -2281,7 +2281,7 @@
         <v>325.9869531478475</v>
       </c>
       <c r="D113">
-        <v>232.7476957029967</v>
+        <v>232.7476957029968</v>
       </c>
       <c r="E113">
         <v>70.89074562013984</v>
@@ -2298,7 +2298,7 @@
         <v>148.4661202112001</v>
       </c>
       <c r="D114">
-        <v>222.6582136054389</v>
+        <v>222.658213605439</v>
       </c>
       <c r="E114">
         <v>460.0416289901393</v>
@@ -2318,7 +2318,7 @@
         <v>232.5934153071973</v>
       </c>
       <c r="E115">
-        <v>134.6682652526393</v>
+        <v>134.6682652526394</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>590.2726252687038</v>
+        <v>590.2726252687039</v>
       </c>
       <c r="C116">
         <v>612.549553874864</v>
@@ -2335,7 +2335,7 @@
         <v>662.7694553102652</v>
       </c>
       <c r="E116">
-        <v>652.2501440143158</v>
+        <v>652.2501440143159</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>58.29944759549586</v>
+        <v>58.29944759549585</v>
       </c>
       <c r="C117">
         <v>51.64589325102818</v>
@@ -2380,7 +2380,7 @@
         <v>11.37065549678255</v>
       </c>
       <c r="C119">
-        <v>5.90847332147556</v>
+        <v>5.908473321475558</v>
       </c>
       <c r="D119">
         <v>8.87086238532803</v>
@@ -2394,10 +2394,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>458.2978363756465</v>
+        <v>458.2978363756466</v>
       </c>
       <c r="C120">
-        <v>349.9045518946223</v>
+        <v>349.9045518946222</v>
       </c>
       <c r="D120">
         <v>493.1419437808643</v>
@@ -2417,10 +2417,10 @@
         <v>981.771024248018</v>
       </c>
       <c r="D121">
-        <v>929.7228044040667</v>
+        <v>929.7228044040669</v>
       </c>
       <c r="E121">
-        <v>682.6112419667604</v>
+        <v>682.6112419667605</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>597.2048645376381</v>
+        <v>597.2048645376378</v>
       </c>
       <c r="C122">
         <v>661.9370003357125</v>
@@ -2437,7 +2437,7 @@
         <v>638.4521696458382</v>
       </c>
       <c r="E122">
-        <v>446.7572198782573</v>
+        <v>446.7572198782574</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2448,7 +2448,7 @@
         <v>564.4432213828647</v>
       </c>
       <c r="C123">
-        <v>599.9489118681008</v>
+        <v>599.9489118681007</v>
       </c>
       <c r="D123">
         <v>475.4484501313967</v>
@@ -2471,7 +2471,7 @@
         <v>261.8371257536303</v>
       </c>
       <c r="E124">
-        <v>581.3800621349055</v>
+        <v>581.3800621349056</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,13 +2479,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>596.0509966015693</v>
+        <v>596.0509966015694</v>
       </c>
       <c r="C125">
         <v>688.8311107037742</v>
       </c>
       <c r="D125">
-        <v>674.1181012579634</v>
+        <v>674.1181012579636</v>
       </c>
       <c r="E125">
         <v>464.7604553489192</v>
@@ -2496,13 +2496,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>28.56231452989911</v>
+        <v>28.56231452989912</v>
       </c>
       <c r="C126">
         <v>21.4671786300186</v>
       </c>
       <c r="D126">
-        <v>19.97007942558029</v>
+        <v>19.9700794255803</v>
       </c>
       <c r="E126">
         <v>17.16991052487799</v>
@@ -2516,7 +2516,7 @@
         <v>541.6559523715729</v>
       </c>
       <c r="C127">
-        <v>555.5501703967092</v>
+        <v>555.5501703967091</v>
       </c>
       <c r="D127">
         <v>552.2202954752</v>
@@ -2536,7 +2536,7 @@
         <v>12.85135555833951</v>
       </c>
       <c r="D128">
-        <v>21.96762871334323</v>
+        <v>21.96762871334324</v>
       </c>
       <c r="E128">
         <v>159.5062471398059</v>
@@ -2550,7 +2550,7 @@
         <v>37.05992219415702</v>
       </c>
       <c r="C129">
-        <v>28.4565730220375</v>
+        <v>28.45657302203749</v>
       </c>
       <c r="D129">
         <v>47.07349010002122</v>
@@ -2570,7 +2570,7 @@
         <v>459.2148613015771</v>
       </c>
       <c r="D130">
-        <v>389.4887085421994</v>
+        <v>389.4887085421995</v>
       </c>
       <c r="E130">
         <v>241.5797273104638</v>
@@ -2584,10 +2584,10 @@
         <v>787.6726674042046</v>
       </c>
       <c r="C131">
-        <v>875.3055708753419</v>
+        <v>875.3055708753417</v>
       </c>
       <c r="D131">
-        <v>742.3963901539795</v>
+        <v>742.3963901539796</v>
       </c>
       <c r="E131">
         <v>419.4046710413011</v>
@@ -2604,7 +2604,7 @@
         <v>1321.086591477077</v>
       </c>
       <c r="D132">
-        <v>1028.679705554056</v>
+        <v>1028.679705554057</v>
       </c>
       <c r="E132">
         <v>549.3453266951901</v>
@@ -2618,13 +2618,13 @@
         <v>475.128583965517</v>
       </c>
       <c r="C133">
-        <v>452.1431246586279</v>
+        <v>452.1431246586278</v>
       </c>
       <c r="D133">
         <v>420.4431265366097</v>
       </c>
       <c r="E133">
-        <v>340.9914532377866</v>
+        <v>340.9914532377867</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>214.8079793050219</v>
+        <v>214.8079793050218</v>
       </c>
       <c r="C134">
         <v>254.8391519275004</v>
@@ -2652,13 +2652,13 @@
         <v>1288.791138791613</v>
       </c>
       <c r="C135">
-        <v>1310.144486690931</v>
+        <v>1310.14448669093</v>
       </c>
       <c r="D135">
         <v>1115.824624429998</v>
       </c>
       <c r="E135">
-        <v>703.1522283954973</v>
+        <v>703.1522283954972</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2672,10 +2672,10 @@
         <v>939.6922078267423</v>
       </c>
       <c r="D136">
-        <v>864.598742479421</v>
+        <v>864.5987424794212</v>
       </c>
       <c r="E136">
-        <v>640.0242845475584</v>
+        <v>640.0242845475585</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2706,7 +2706,7 @@
         <v>875.6891428986746</v>
       </c>
       <c r="D138">
-        <v>718.1152343805298</v>
+        <v>718.11523438053</v>
       </c>
       <c r="E138">
         <v>357.5753145706896</v>
@@ -2723,7 +2723,7 @@
         <v>662.9397286130373</v>
       </c>
       <c r="D139">
-        <v>564.9601650325828</v>
+        <v>564.9601650325831</v>
       </c>
       <c r="E139">
         <v>358.8627871543582</v>
@@ -2740,10 +2740,10 @@
         <v>119.6359669566393</v>
       </c>
       <c r="D140">
-        <v>94.6465011215011</v>
+        <v>94.64650112150112</v>
       </c>
       <c r="E140">
-        <v>71.00450832726553</v>
+        <v>71.00450832726554</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2757,10 +2757,10 @@
         <v>1465.28267118676</v>
       </c>
       <c r="D141">
-        <v>1340.583442450196</v>
+        <v>1340.583442450197</v>
       </c>
       <c r="E141">
-        <v>827.5815295600505</v>
+        <v>827.5815295600507</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,13 +2768,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>387.933055899995</v>
+        <v>387.9330558999951</v>
       </c>
       <c r="C142">
         <v>386.5526102185564</v>
       </c>
       <c r="D142">
-        <v>329.4644407943364</v>
+        <v>329.4644407943365</v>
       </c>
       <c r="E142">
         <v>209.5200939900107</v>
@@ -2788,7 +2788,7 @@
         <v>20.54663434363106</v>
       </c>
       <c r="C143">
-        <v>20.90786220525687</v>
+        <v>20.90786220525686</v>
       </c>
       <c r="D143">
         <v>16.94648283217064</v>
@@ -2805,7 +2805,7 @@
         <v>471.9334465377075</v>
       </c>
       <c r="C144">
-        <v>567.0459448787705</v>
+        <v>567.0459448787703</v>
       </c>
       <c r="D144">
         <v>566.8286273486548</v>
@@ -2828,7 +2828,7 @@
         <v>182.149424069343</v>
       </c>
       <c r="E145">
-        <v>383.4589372122544</v>
+        <v>383.4589372122545</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2839,10 +2839,10 @@
         <v>46.32175516746742</v>
       </c>
       <c r="C146">
-        <v>51.11140984656105</v>
+        <v>51.11140984656104</v>
       </c>
       <c r="D146">
-        <v>53.56796360050293</v>
+        <v>53.56796360050294</v>
       </c>
       <c r="E146">
         <v>44.12412471292362</v>
@@ -2853,10 +2853,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>96.62569052384561</v>
+        <v>96.62569052384563</v>
       </c>
       <c r="C147">
-        <v>85.74894266944807</v>
+        <v>85.74894266944804</v>
       </c>
       <c r="D147">
         <v>114.0306762878219</v>
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>760.7568155773347</v>
+        <v>760.756815577335</v>
       </c>
       <c r="C148">
-        <v>874.7596555030909</v>
+        <v>874.7596555030906</v>
       </c>
       <c r="D148">
-        <v>815.1625056173151</v>
+        <v>815.1625056173152</v>
       </c>
       <c r="E148">
-        <v>539.757309555957</v>
+        <v>539.7573095559569</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2887,7 +2887,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>784.3058553461826</v>
+        <v>784.3058553461824</v>
       </c>
       <c r="C149">
         <v>877.2777097975465</v>
@@ -2904,7 +2904,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>477.7955210729618</v>
+        <v>477.7955210729617</v>
       </c>
       <c r="C150">
         <v>451.2091991568075</v>
@@ -2913,7 +2913,7 @@
         <v>398.4085159482477</v>
       </c>
       <c r="E150">
-        <v>288.5589060112921</v>
+        <v>288.5589060112922</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>617.4647446483152</v>
       </c>
       <c r="E152">
-        <v>313.7605571913176</v>
+        <v>313.7605571913177</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>462.4268316685443</v>
+        <v>462.4268316685444</v>
       </c>
       <c r="C155">
-        <v>486.3346033201465</v>
+        <v>486.3346033201464</v>
       </c>
       <c r="D155">
         <v>548.2404784147627</v>
       </c>
       <c r="E155">
-        <v>582.1076359351343</v>
+        <v>582.1076359351346</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>502.5547798711867</v>
       </c>
       <c r="C156">
-        <v>596.8651949838161</v>
+        <v>596.865194983816</v>
       </c>
       <c r="D156">
         <v>727.6646349868668</v>
       </c>
       <c r="E156">
-        <v>807.6509482508376</v>
+        <v>807.6509482508379</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,7 +3026,7 @@
         <v>465.9177235542857</v>
       </c>
       <c r="C157">
-        <v>498.2912583169016</v>
+        <v>498.2912583169015</v>
       </c>
       <c r="D157">
         <v>554.9141084568697</v>
@@ -3049,7 +3049,7 @@
         <v>801.0078929927846</v>
       </c>
       <c r="E158">
-        <v>597.0299806947418</v>
+        <v>597.029980694742</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3057,7 +3057,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>923.7740709221979</v>
+        <v>923.7740709221982</v>
       </c>
       <c r="C159">
         <v>1008.760459872855</v>
@@ -3074,7 +3074,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>235.7050052317401</v>
+        <v>235.7050052317402</v>
       </c>
       <c r="C160">
         <v>185.0285042842737</v>
@@ -3128,10 +3128,10 @@
         <v>879.3252392499415</v>
       </c>
       <c r="C163">
-        <v>945.0610966413166</v>
+        <v>945.0610966413163</v>
       </c>
       <c r="D163">
-        <v>727.8148179750361</v>
+        <v>727.8148179750364</v>
       </c>
       <c r="E163">
         <v>327.5121673058781</v>
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>78.27829004705856</v>
+        <v>78.27829004705858</v>
       </c>
       <c r="C164">
-        <v>59.52393207949451</v>
+        <v>59.52393207949449</v>
       </c>
       <c r="D164">
         <v>89.17425009498274</v>
       </c>
       <c r="E164">
-        <v>251.5536928663096</v>
+        <v>251.5536928663095</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3202,7 +3202,7 @@
         <v>0.9001833000401838</v>
       </c>
       <c r="E167">
-        <v>0.8929111238304525</v>
+        <v>0.8929111238304527</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3216,7 +3216,7 @@
         <v>12.61265441332097</v>
       </c>
       <c r="D168">
-        <v>13.93904260996925</v>
+        <v>13.93904260996926</v>
       </c>
       <c r="E168">
         <v>11.46214082312718</v>
@@ -3227,13 +3227,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>627.7248215216034</v>
+        <v>627.7248215216035</v>
       </c>
       <c r="C169">
-        <v>628.3212774751968</v>
+        <v>628.3212774751967</v>
       </c>
       <c r="D169">
-        <v>795.1255350868391</v>
+        <v>795.1255350868392</v>
       </c>
       <c r="E169">
         <v>1153.198335081643</v>
@@ -3250,7 +3250,7 @@
         <v>786.1530373042922</v>
       </c>
       <c r="D170">
-        <v>930.6145725086379</v>
+        <v>930.614572508638</v>
       </c>
       <c r="E170">
         <v>1091.158550008766</v>
@@ -3261,7 +3261,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>128.9353347100454</v>
+        <v>128.9353347100455</v>
       </c>
       <c r="C171">
         <v>120.8456840408105</v>
@@ -3270,7 +3270,7 @@
         <v>151.2487288664727</v>
       </c>
       <c r="E171">
-        <v>224.3001062149419</v>
+        <v>224.300106214942</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3301,7 +3301,7 @@
         <v>967.0212302068385</v>
       </c>
       <c r="D173">
-        <v>1017.644623202638</v>
+        <v>1017.644623202639</v>
       </c>
       <c r="E173">
         <v>901.6461002959558</v>
@@ -3315,7 +3315,7 @@
         <v>359.8501604580636</v>
       </c>
       <c r="C174">
-        <v>509.8705772590614</v>
+        <v>509.8705772590612</v>
       </c>
       <c r="D174">
         <v>699.1924012800871</v>
@@ -3352,10 +3352,10 @@
         <v>721.2523126133427</v>
       </c>
       <c r="D176">
-        <v>713.4253692582475</v>
+        <v>713.4253692582477</v>
       </c>
       <c r="E176">
-        <v>587.6103671578221</v>
+        <v>587.610367157822</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3369,7 +3369,7 @@
         <v>661.8410842267413</v>
       </c>
       <c r="D177">
-        <v>642.4629879465923</v>
+        <v>642.4629879465924</v>
       </c>
       <c r="E177">
         <v>469.3643384484451</v>
@@ -3397,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>81.71640960180972</v>
+        <v>81.7164096018097</v>
       </c>
       <c r="C179">
         <v>62.36186037498182</v>
@@ -3406,7 +3406,7 @@
         <v>110.0088634933042</v>
       </c>
       <c r="E179">
-        <v>705.9950494519449</v>
+        <v>705.9950494519447</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3434,10 +3434,10 @@
         <v>1.651338655452208</v>
       </c>
       <c r="C181">
-        <v>0.8325445235949259</v>
+        <v>0.8325445235949258</v>
       </c>
       <c r="D181">
-        <v>0.9508196923272598</v>
+        <v>0.9508196923272599</v>
       </c>
       <c r="E181">
         <v>1.881989385234166</v>
@@ -3468,10 +3468,10 @@
         <v>3.07383859851417</v>
       </c>
       <c r="C183">
-        <v>2.397583380835995</v>
+        <v>2.397583380835994</v>
       </c>
       <c r="D183">
-        <v>3.426321501629196</v>
+        <v>3.426321501629197</v>
       </c>
       <c r="E183">
         <v>8.78320734737785</v>
@@ -3482,13 +3482,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>5.293920091141926</v>
+        <v>5.293920091141927</v>
       </c>
       <c r="C184">
         <v>4.531192197099684</v>
       </c>
       <c r="D184">
-        <v>5.908407654423391</v>
+        <v>5.908407654423392</v>
       </c>
       <c r="E184">
         <v>15.22416964973988</v>
@@ -3505,7 +3505,7 @@
         <v>432.2757356033099</v>
       </c>
       <c r="D185">
-        <v>653.8637804228553</v>
+        <v>653.8637804228554</v>
       </c>
       <c r="E185">
         <v>1686.076788708692</v>
@@ -3573,10 +3573,10 @@
         <v>0.6294983020173117</v>
       </c>
       <c r="D189">
-        <v>0.7244015036808727</v>
+        <v>0.7244015036808729</v>
       </c>
       <c r="E189">
-        <v>0.7204548560036317</v>
+        <v>0.7204548560036318</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3590,7 +3590,7 @@
         <v>0.6294983020173117</v>
       </c>
       <c r="D190">
-        <v>0.7244015036808727</v>
+        <v>0.7244015036808729</v>
       </c>
       <c r="E190">
         <v>1.440909712007264</v>
@@ -3618,7 +3618,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>71.50178457188866</v>
+        <v>71.50178457188865</v>
       </c>
       <c r="C192">
         <v>73.49650364464662</v>
@@ -3627,7 +3627,7 @@
         <v>111.1356982802857</v>
       </c>
       <c r="E192">
-        <v>222.2508242478756</v>
+        <v>222.2508242478757</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3641,7 +3641,7 @@
         <v>622.1510651671417</v>
       </c>
       <c r="D193">
-        <v>738.8475580293624</v>
+        <v>738.8475580293625</v>
       </c>
       <c r="E193">
         <v>1130.69345192902</v>
@@ -3658,7 +3658,7 @@
         <v>572.728720021224</v>
       </c>
       <c r="D194">
-        <v>653.2693559828076</v>
+        <v>653.2693559828077</v>
       </c>
       <c r="E194">
         <v>676.1585350007252</v>
@@ -3689,13 +3689,13 @@
         <v>705.726507039541</v>
       </c>
       <c r="C196">
-        <v>831.0240113051169</v>
+        <v>831.0240113051168</v>
       </c>
       <c r="D196">
-        <v>655.0615945364181</v>
+        <v>655.0615945364182</v>
       </c>
       <c r="E196">
-        <v>287.7104245119422</v>
+        <v>287.7104245119423</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3706,7 +3706,7 @@
         <v>605.6442470946685</v>
       </c>
       <c r="C197">
-        <v>633.3023848381083</v>
+        <v>633.3023848381081</v>
       </c>
       <c r="D197">
         <v>563.635829448066</v>
@@ -3720,10 +3720,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>193.9361314510388</v>
+        <v>193.9361314510387</v>
       </c>
       <c r="C198">
-        <v>232.4651691921209</v>
+        <v>232.4651691921208</v>
       </c>
       <c r="D198">
         <v>281.0454402063793</v>
@@ -3740,10 +3740,10 @@
         <v>688.2950742564415</v>
       </c>
       <c r="C199">
-        <v>793.5887215370198</v>
+        <v>793.5887215370195</v>
       </c>
       <c r="D199">
-        <v>702.3247913382241</v>
+        <v>702.3247913382244</v>
       </c>
       <c r="E199">
         <v>413.3212655740433</v>
@@ -3757,7 +3757,7 @@
         <v>639.2611900303983</v>
       </c>
       <c r="C200">
-        <v>690.3613685668645</v>
+        <v>690.3613685668644</v>
       </c>
       <c r="D200">
         <v>607.747141837458</v>
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.9867244516064635</v>
+        <v>0.9867244516064636</v>
       </c>
       <c r="C202">
         <v>1.019537521972074</v>
       </c>
       <c r="D202">
-        <v>1.062520545866914</v>
+        <v>1.062520545866915</v>
       </c>
       <c r="E202">
         <v>1.085318365975234</v>
@@ -3808,10 +3808,10 @@
         <v>529.1917025591482</v>
       </c>
       <c r="C203">
-        <v>581.1400222685684</v>
+        <v>581.1400222685683</v>
       </c>
       <c r="D203">
-        <v>695.7417396308551</v>
+        <v>695.7417396308552</v>
       </c>
       <c r="E203">
         <v>784.8767579383988</v>
@@ -3825,7 +3825,7 @@
         <v>560.3914969634843</v>
       </c>
       <c r="C204">
-        <v>589.8861598892724</v>
+        <v>589.8861598892723</v>
       </c>
       <c r="D204">
         <v>613.264250466332</v>
@@ -3859,13 +3859,13 @@
         <v>602.3120861541889</v>
       </c>
       <c r="C206">
-        <v>639.2392805169063</v>
+        <v>639.2392805169062</v>
       </c>
       <c r="D206">
-        <v>434.6205551090716</v>
+        <v>434.6205551090717</v>
       </c>
       <c r="E206">
-        <v>142.6444655954336</v>
+        <v>142.6444655954335</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3876,10 +3876,10 @@
         <v>658.2590749518954</v>
       </c>
       <c r="C207">
-        <v>568.2542369029579</v>
+        <v>568.2542369029578</v>
       </c>
       <c r="D207">
-        <v>362.4539287830808</v>
+        <v>362.4539287830809</v>
       </c>
       <c r="E207">
         <v>113.9339624235767</v>
@@ -3890,13 +3890,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>926.0254783221577</v>
+        <v>926.0254783221579</v>
       </c>
       <c r="C208">
         <v>913.3064088099643</v>
       </c>
       <c r="D208">
-        <v>670.998570690197</v>
+        <v>670.9985706901972</v>
       </c>
       <c r="E208">
         <v>299.7679982212551</v>
@@ -3910,7 +3910,7 @@
         <v>168.8389291536707</v>
       </c>
       <c r="C209">
-        <v>221.673997424416</v>
+        <v>221.6739974244159</v>
       </c>
       <c r="D209">
         <v>167.7238858669263</v>
@@ -3924,13 +3924,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>688.0108975485911</v>
+        <v>688.0108975485912</v>
       </c>
       <c r="C210">
         <v>741.3497158794102</v>
       </c>
       <c r="D210">
-        <v>611.3542532955129</v>
+        <v>611.354253295513</v>
       </c>
       <c r="E210">
         <v>329.634182545882</v>
@@ -3978,7 +3978,7 @@
         <v>603.7140668579531</v>
       </c>
       <c r="C213">
-        <v>610.3893206011734</v>
+        <v>610.3893206011732</v>
       </c>
       <c r="D213">
         <v>412.9221973478136</v>
@@ -4001,7 +4001,7 @@
         <v>305.56249077668</v>
       </c>
       <c r="E214">
-        <v>97.38590577910936</v>
+        <v>97.38590577910935</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4012,7 +4012,7 @@
         <v>482.2058057473698</v>
       </c>
       <c r="C215">
-        <v>505.4457082005212</v>
+        <v>505.4457082005211</v>
       </c>
       <c r="D215">
         <v>374.1768225379105</v>
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>626.6047989024235</v>
+        <v>626.6047989024233</v>
       </c>
       <c r="C216">
         <v>598.2555490979348</v>
@@ -4035,7 +4035,7 @@
         <v>392.4400913856756</v>
       </c>
       <c r="E216">
-        <v>117.2545307546397</v>
+        <v>117.2545307546398</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>530.978612790139</v>
+        <v>530.9786127901391</v>
       </c>
       <c r="C219">
-        <v>545.7818045367105</v>
+        <v>545.7818045367103</v>
       </c>
       <c r="D219">
-        <v>495.7456609628137</v>
+        <v>495.7456609628138</v>
       </c>
       <c r="E219">
-        <v>328.0831906039965</v>
+        <v>328.0831906039963</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4111,10 +4111,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>423.4913685209983</v>
+        <v>423.4913685209982</v>
       </c>
       <c r="C221">
-        <v>413.9603385659256</v>
+        <v>413.9603385659255</v>
       </c>
       <c r="D221">
         <v>466.6968219713922</v>
@@ -4148,7 +4148,7 @@
         <v>5.52172175932054</v>
       </c>
       <c r="C223">
-        <v>5.105830936347049</v>
+        <v>5.105830936347048</v>
       </c>
       <c r="D223">
         <v>5.581496273125815</v>
@@ -4168,10 +4168,10 @@
         <v>268.7223591506602</v>
       </c>
       <c r="D224">
-        <v>319.052343951665</v>
+        <v>319.0523439516651</v>
       </c>
       <c r="E224">
-        <v>347.7701456403893</v>
+        <v>347.7701456403891</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,7 +4185,7 @@
         <v>378.7345367600387</v>
       </c>
       <c r="D225">
-        <v>348.266247214573</v>
+        <v>348.2662472145731</v>
       </c>
       <c r="E225">
         <v>193.2956296689547</v>
@@ -4222,7 +4222,7 @@
         <v>11.21994862300008</v>
       </c>
       <c r="E227">
-        <v>1.752713851237845</v>
+        <v>1.752713851237844</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4239,7 +4239,7 @@
         <v>9.466802284670209</v>
       </c>
       <c r="E228">
-        <v>7.495146826931542</v>
+        <v>7.495146826931544</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4273,7 +4273,7 @@
         <v>89.61891806009119</v>
       </c>
       <c r="E230">
-        <v>36.25815811610157</v>
+        <v>36.25815811610158</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4281,10 +4281,10 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>145.2500521512104</v>
+        <v>145.2500521512103</v>
       </c>
       <c r="C231">
-        <v>122.4351121867658</v>
+        <v>122.4351121867657</v>
       </c>
       <c r="D231">
         <v>164.9485751544911</v>
@@ -4315,7 +4315,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>8.920175614925878</v>
+        <v>8.92017561492588</v>
       </c>
       <c r="C233">
         <v>7.30690548225616</v>
@@ -4324,7 +4324,7 @@
         <v>9.948704445190316</v>
       </c>
       <c r="E233">
-        <v>20.25606156643864</v>
+        <v>20.25606156643863</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4392,7 +4392,7 @@
         <v>431.2555170421311</v>
       </c>
       <c r="E237">
-        <v>249.4867968641422</v>
+        <v>249.4867968641421</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4426,7 +4426,7 @@
         <v>6.827725061472413</v>
       </c>
       <c r="E239">
-        <v>4.803320595199683</v>
+        <v>4.803320595199682</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4440,10 +4440,10 @@
         <v>241.2516972574137</v>
       </c>
       <c r="D240">
-        <v>329.5274883145384</v>
+        <v>329.5274883145385</v>
       </c>
       <c r="E240">
-        <v>624.9563613875545</v>
+        <v>624.9563613875542</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4488,10 +4488,10 @@
         <v>213.90757356008</v>
       </c>
       <c r="C243">
-        <v>220.7053461515176</v>
+        <v>220.7053461515175</v>
       </c>
       <c r="D243">
-        <v>340.4375768948844</v>
+        <v>340.4375768948845</v>
       </c>
       <c r="E243">
         <v>596.4212166608933</v>
@@ -4505,13 +4505,13 @@
         <v>334.420526193446</v>
       </c>
       <c r="C244">
-        <v>244.2289195991918</v>
+        <v>244.2289195991917</v>
       </c>
       <c r="D244">
-        <v>344.6110114000261</v>
+        <v>344.6110114000262</v>
       </c>
       <c r="E244">
-        <v>749.133633538687</v>
+        <v>749.1336335386871</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4525,10 +4525,10 @@
         <v>183.842853136212</v>
       </c>
       <c r="D245">
-        <v>291.4977495083418</v>
+        <v>291.4977495083419</v>
       </c>
       <c r="E245">
-        <v>618.2976251401687</v>
+        <v>618.2976251401686</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4545,7 +4545,7 @@
         <v>3.564371558275421</v>
       </c>
       <c r="E246">
-        <v>7.150971660597037</v>
+        <v>7.150971660597036</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.4552576630549074</v>
+        <v>0.4552576630549075</v>
       </c>
       <c r="C249">
         <v>0.3870765702817255</v>
@@ -4621,10 +4621,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>698.2363829448484</v>
+        <v>698.2363829448483</v>
       </c>
       <c r="C251">
-        <v>723.9815271103839</v>
+        <v>723.9815271103841</v>
       </c>
       <c r="D251">
         <v>934.3986782224572</v>
@@ -4641,7 +4641,7 @@
         <v>671.4066482458519</v>
       </c>
       <c r="C252">
-        <v>673.5203278753089</v>
+        <v>673.5203278753088</v>
       </c>
       <c r="D252">
         <v>916.088127439734</v>
@@ -4698,7 +4698,7 @@
         <v>5.064930500262891</v>
       </c>
       <c r="E255">
-        <v>7.282047267844963</v>
+        <v>7.282047267844964</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,10 +4706,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>153.6105173995885</v>
+        <v>153.6105173995886</v>
       </c>
       <c r="C256">
-        <v>151.0644453245082</v>
+        <v>151.0644453245081</v>
       </c>
       <c r="D256">
         <v>208.2027359215248</v>
@@ -4732,7 +4732,7 @@
         <v>25.69081390800076</v>
       </c>
       <c r="E257">
-        <v>29.87562004143432</v>
+        <v>29.87562004143433</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4749,7 +4749,7 @@
         <v>57.60774136059522</v>
       </c>
       <c r="E258">
-        <v>84.36082804623787</v>
+        <v>84.36082804623786</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4825,7 +4825,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>15.12470262564289</v>
+        <v>15.12470262564288</v>
       </c>
       <c r="C263">
         <v>10.99497271165303</v>
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>27.41008109270173</v>
+        <v>27.41008109270172</v>
       </c>
       <c r="C264">
         <v>16.34523635187927</v>
@@ -4859,10 +4859,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>14.44585354885632</v>
+        <v>14.44585354885631</v>
       </c>
       <c r="C265">
-        <v>9.340135058216726</v>
+        <v>9.340135058216724</v>
       </c>
       <c r="D265">
         <v>10.21873107101687</v>
@@ -4876,13 +4876,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>57.37508510862967</v>
+        <v>57.37508510862966</v>
       </c>
       <c r="C266">
         <v>46.67973849555543</v>
       </c>
       <c r="D266">
-        <v>57.63435853287824</v>
+        <v>57.63435853287822</v>
       </c>
       <c r="E266">
         <v>91.21214494321985</v>
@@ -4893,7 +4893,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>17.77951206013086</v>
+        <v>17.77951206013085</v>
       </c>
       <c r="C267">
         <v>16.34523635187927</v>
@@ -4916,7 +4916,7 @@
         <v>31.47696445065508</v>
       </c>
       <c r="D268">
-        <v>30.82857448626143</v>
+        <v>30.82857448626142</v>
       </c>
       <c r="E268">
         <v>27.80432981008863</v>
@@ -4927,7 +4927,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>64.52221776693986</v>
+        <v>64.52221776693985</v>
       </c>
       <c r="C269">
         <v>60.51175062496623</v>
@@ -4950,10 +4950,10 @@
         <v>119.9932555298587</v>
       </c>
       <c r="D270">
-        <v>130.8563880232064</v>
+        <v>130.8563880232065</v>
       </c>
       <c r="E270">
-        <v>117.247827705773</v>
+        <v>117.2478277057731</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4995,7 +4995,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>51.5051215228366</v>
+        <v>51.50512152283659</v>
       </c>
       <c r="C273">
         <v>55.58402044319384</v>
@@ -5106,7 +5106,7 @@
         <v>22.15123094733154</v>
       </c>
       <c r="E279">
-        <v>38.28848125253647</v>
+        <v>38.28848125253648</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>88.56420782184397</v>
       </c>
       <c r="C281">
-        <v>74.59487275666299</v>
+        <v>74.59487275666301</v>
       </c>
       <c r="D281">
         <v>50.12344252803869</v>
       </c>
       <c r="E281">
-        <v>28.49282366565641</v>
+        <v>28.49282366565639</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5151,13 +5151,13 @@
         <v>3.978912406749986</v>
       </c>
       <c r="C282">
-        <v>4.126379366293407</v>
+        <v>4.126379366293408</v>
       </c>
       <c r="D282">
-        <v>4.885960248597291</v>
+        <v>4.885960248597289</v>
       </c>
       <c r="E282">
-        <v>4.719607886574072</v>
+        <v>4.719607886574071</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5171,10 +5171,10 @@
         <v>15.32655193194694</v>
       </c>
       <c r="D283">
-        <v>18.48167572295497</v>
+        <v>18.48167572295496</v>
       </c>
       <c r="E283">
-        <v>21.45276312079124</v>
+        <v>21.45276312079123</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5188,7 +5188,7 @@
         <v>20.82839108700482</v>
       </c>
       <c r="D284">
-        <v>22.30547070011807</v>
+        <v>22.30547070011806</v>
       </c>
       <c r="E284">
         <v>20.8091802271675</v>
@@ -5219,13 +5219,13 @@
         <v>2.712052504021857</v>
       </c>
       <c r="C286">
-        <v>2.936965554807717</v>
+        <v>2.936965554807716</v>
       </c>
       <c r="D286">
         <v>4.129890515604187</v>
       </c>
       <c r="E286">
-        <v>4.558152530063866</v>
+        <v>4.558152530063867</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>165.7993996246104</v>
       </c>
       <c r="C293">
-        <v>210.9895476854846</v>
+        <v>210.9895476854845</v>
       </c>
       <c r="D293">
         <v>293.1783363523984</v>
       </c>
       <c r="E293">
-        <v>301.0977967223792</v>
+        <v>301.0977967223793</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5378,7 +5378,7 @@
         <v>469.1400835705981</v>
       </c>
       <c r="E295">
-        <v>348.1132208028852</v>
+        <v>348.1132208028853</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,7 +5386,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>408.3342803076434</v>
+        <v>408.3342803076433</v>
       </c>
       <c r="C296">
         <v>457.3658091085973</v>
@@ -5409,7 +5409,7 @@
         <v>184.6000803753043</v>
       </c>
       <c r="D297">
-        <v>192.1911185518863</v>
+        <v>192.1911185518864</v>
       </c>
       <c r="E297">
         <v>185.5314906446064</v>
@@ -5426,10 +5426,10 @@
         <v>352.8802647683268</v>
       </c>
       <c r="D298">
-        <v>376.6012174608358</v>
+        <v>376.6012174608359</v>
       </c>
       <c r="E298">
-        <v>362.2269446005063</v>
+        <v>362.2269446005064</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5471,13 +5471,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>324.9881014026833</v>
+        <v>324.9881014026832</v>
       </c>
       <c r="C301">
         <v>339.8090613584498</v>
       </c>
       <c r="D301">
-        <v>325.9514050603729</v>
+        <v>325.951405060373</v>
       </c>
       <c r="E301">
         <v>239.5679338684178</v>
@@ -5494,7 +5494,7 @@
         <v>7.962109423066565</v>
       </c>
       <c r="D302">
-        <v>8.08521279300388</v>
+        <v>8.085212793003883</v>
       </c>
       <c r="E302">
         <v>7.435152882571793</v>
@@ -5511,7 +5511,7 @@
         <v>24.7934793192496</v>
       </c>
       <c r="D303">
-        <v>30.26938366405129</v>
+        <v>30.2693836640513</v>
       </c>
       <c r="E303">
         <v>34.67903973105162</v>
@@ -5525,7 +5525,7 @@
         <v>26.68366437272383</v>
       </c>
       <c r="C304">
-        <v>34.90853912450785</v>
+        <v>34.90853912450786</v>
       </c>
       <c r="D304">
         <v>27.50933739819149</v>
@@ -5633,7 +5633,7 @@
         <v>168.463030914944</v>
       </c>
       <c r="E310">
-        <v>207.7374961531466</v>
+        <v>207.7374961531467</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5647,7 +5647,7 @@
         <v>14.94584740440136</v>
       </c>
       <c r="D311">
-        <v>19.0643067828806</v>
+        <v>19.06430678288061</v>
       </c>
       <c r="E311">
         <v>23.91354823313792</v>
@@ -5664,7 +5664,7 @@
         <v>3.87179806347807</v>
       </c>
       <c r="D312">
-        <v>4.99850738230923</v>
+        <v>4.998507382309231</v>
       </c>
       <c r="E312">
         <v>9.409785784973387</v>
@@ -5681,7 +5681,7 @@
         <v>4.921193657546787</v>
       </c>
       <c r="D313">
-        <v>6.650339575423467</v>
+        <v>6.650339575423469</v>
       </c>
       <c r="E313">
         <v>8.810254612208707</v>
@@ -5698,10 +5698,10 @@
         <v>7.108390838678694</v>
       </c>
       <c r="D314">
-        <v>7.98040749050816</v>
+        <v>7.980407490508161</v>
       </c>
       <c r="E314">
-        <v>6.796482129418146</v>
+        <v>6.796482129418147</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,10 +5709,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>610.4697937382033</v>
+        <v>610.4697937382034</v>
       </c>
       <c r="C315">
-        <v>611.4350241504183</v>
+        <v>611.4350241504184</v>
       </c>
       <c r="D315">
         <v>769.2061589101912</v>
@@ -5746,7 +5746,7 @@
         <v>760.8720881983351</v>
       </c>
       <c r="C317">
-        <v>779.3758623401808</v>
+        <v>779.3758623401806</v>
       </c>
       <c r="D317">
         <v>893.0011167676164</v>
@@ -5766,7 +5766,7 @@
         <v>771.514405283884</v>
       </c>
       <c r="D318">
-        <v>730.7768556951081</v>
+        <v>730.7768556951083</v>
       </c>
       <c r="E318">
         <v>487.1393744501307</v>
@@ -5811,13 +5811,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>608.914588281552</v>
+        <v>608.9145882815519</v>
       </c>
       <c r="C321">
         <v>743.2476445344711</v>
       </c>
       <c r="D321">
-        <v>811.9678192290824</v>
+        <v>811.9678192290826</v>
       </c>
       <c r="E321">
         <v>687.0915037824615</v>
@@ -5879,7 +5879,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>486.01646096822</v>
+        <v>486.0164609682201</v>
       </c>
       <c r="C325">
         <v>485.3270687478947</v>
@@ -5899,10 +5899,10 @@
         <v>370.5061296821911</v>
       </c>
       <c r="C326">
-        <v>335.8079353341278</v>
+        <v>335.8079353341277</v>
       </c>
       <c r="D326">
-        <v>409.2870269028006</v>
+        <v>409.2870269028007</v>
       </c>
       <c r="E326">
         <v>598.1946829890404</v>
@@ -5919,7 +5919,7 @@
         <v>174.3883100729195</v>
       </c>
       <c r="D327">
-        <v>247.9124881653224</v>
+        <v>247.9124881653225</v>
       </c>
       <c r="E327">
         <v>413.8375879734115</v>
@@ -5930,7 +5930,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>7.690453848880948</v>
+        <v>7.69045384888095</v>
       </c>
       <c r="C328">
         <v>7.440995672667667</v>
@@ -5953,7 +5953,7 @@
         <v>21.47075163746689</v>
       </c>
       <c r="D329">
-        <v>26.71875038967914</v>
+        <v>26.71875038967915</v>
       </c>
       <c r="E329">
         <v>23.03345244523958</v>
@@ -5973,7 +5973,7 @@
         <v>19.57926797094493</v>
       </c>
       <c r="E330">
-        <v>33.31580946843985</v>
+        <v>33.31580946843986</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5987,7 +5987,7 @@
         <v>46.70737234755021</v>
       </c>
       <c r="D331">
-        <v>78.26922391095175</v>
+        <v>78.26922391095177</v>
       </c>
       <c r="E331">
         <v>213.5385877433275</v>
@@ -6007,7 +6007,7 @@
         <v>548.0879667771853</v>
       </c>
       <c r="E332">
-        <v>962.3957286183743</v>
+        <v>962.3957286183745</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6024,7 +6024,7 @@
         <v>437.9851201238029</v>
       </c>
       <c r="E333">
-        <v>665.6163467885315</v>
+        <v>665.6163467885317</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6041,7 +6041,7 @@
         <v>278.0002587594265</v>
       </c>
       <c r="E334">
-        <v>441.7995934336287</v>
+        <v>441.7995934336288</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,13 +6049,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>305.8386614972246</v>
+        <v>305.8386614972247</v>
       </c>
       <c r="C335">
         <v>277.4681062239294</v>
       </c>
       <c r="D335">
-        <v>381.5433779832811</v>
+        <v>381.5433779832812</v>
       </c>
       <c r="E335">
         <v>644.7725823335057</v>
@@ -6069,7 +6069,7 @@
         <v>19.60415550737373</v>
       </c>
       <c r="C336">
-        <v>17.6460642681513</v>
+        <v>17.64606426815129</v>
       </c>
       <c r="D336">
         <v>31.65037015430514</v>
@@ -6086,7 +6086,7 @@
         <v>314.9333084349435</v>
       </c>
       <c r="C337">
-        <v>282.8783348783778</v>
+        <v>282.8783348783779</v>
       </c>
       <c r="D337">
         <v>283.2577216339804</v>
@@ -6103,13 +6103,13 @@
         <v>339.9523631885868</v>
       </c>
       <c r="C338">
-        <v>343.7599356205874</v>
+        <v>343.7599356205875</v>
       </c>
       <c r="D338">
         <v>301.7890056571122</v>
       </c>
       <c r="E338">
-        <v>170.5884930265546</v>
+        <v>170.5884930265545</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6126,7 +6126,7 @@
         <v>501.5480759207176</v>
       </c>
       <c r="E339">
-        <v>474.453142996012</v>
+        <v>474.4531429960121</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6143,7 +6143,7 @@
         <v>7.316862543929073</v>
       </c>
       <c r="E340">
-        <v>9.574401870557821</v>
+        <v>9.57440187055782</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6154,13 +6154,13 @@
         <v>66.56587178802783</v>
       </c>
       <c r="C341">
-        <v>52.22962147539398</v>
+        <v>52.22962147539399</v>
       </c>
       <c r="D341">
         <v>72.01248967599459</v>
       </c>
       <c r="E341">
-        <v>145.4326252258208</v>
+        <v>145.4326252258207</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>18.92113643116894</v>
       </c>
       <c r="E343">
-        <v>30.2932974552113</v>
+        <v>30.29329745521129</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6205,7 +6205,7 @@
         <v>11.53517129679754</v>
       </c>
       <c r="C344">
-        <v>9.312495088515304</v>
+        <v>9.312495088515305</v>
       </c>
       <c r="D344">
         <v>11.55294085883538</v>
@@ -6222,7 +6222,7 @@
         <v>59.91066285360261</v>
       </c>
       <c r="C345">
-        <v>53.57668455917623</v>
+        <v>53.57668455917624</v>
       </c>
       <c r="D345">
         <v>53.24924431478795</v>
@@ -6239,7 +6239,7 @@
         <v>6.228336237255717</v>
       </c>
       <c r="C346">
-        <v>6.757419674130336</v>
+        <v>6.757419674130337</v>
       </c>
       <c r="D346">
         <v>8.830276695417099</v>
@@ -6256,7 +6256,7 @@
         <v>10.97373527516483</v>
       </c>
       <c r="C347">
-        <v>8.205438175729693</v>
+        <v>8.205438175729695</v>
       </c>
       <c r="D347">
         <v>9.365444979987833</v>
@@ -6273,7 +6273,7 @@
         <v>32.38097445768049</v>
       </c>
       <c r="C348">
-        <v>34.13974326973183</v>
+        <v>34.13974326973185</v>
       </c>
       <c r="D348">
         <v>40.93284743638584</v>
@@ -6290,7 +6290,7 @@
         <v>7.9667476840325</v>
       </c>
       <c r="C349">
-        <v>6.689544289339346</v>
+        <v>6.689544289339347</v>
       </c>
       <c r="D349">
         <v>10.38151927734424</v>
@@ -6341,7 +6341,7 @@
         <v>15.92112527217563</v>
       </c>
       <c r="C352">
-        <v>15.35016537032469</v>
+        <v>15.3501653703247</v>
       </c>
       <c r="D352">
         <v>18.20943793621564</v>
@@ -6381,7 +6381,7 @@
         <v>83.31864848961202</v>
       </c>
       <c r="E354">
-        <v>40.0652619487422</v>
+        <v>40.06526194874219</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>26.53654422054531</v>
+        <v>26.53654422054532</v>
       </c>
       <c r="C355">
         <v>28.06970481000346</v>
@@ -6406,7 +6406,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>91.04204709938098</v>
+        <v>91.04204709938095</v>
       </c>
       <c r="C356">
         <v>85.73101693795515</v>
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>15.61995906116831</v>
+        <v>15.6199590611683</v>
       </c>
       <c r="C357">
         <v>15.29473541616101</v>
@@ -6440,7 +6440,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>31.23991812233661</v>
+        <v>31.2399181223366</v>
       </c>
       <c r="C358">
         <v>30.18697779505463</v>
@@ -6449,7 +6449,7 @@
         <v>38.99998884291547</v>
       </c>
       <c r="E358">
-        <v>53.06358729500656</v>
+        <v>53.06358729500654</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6480,7 +6480,7 @@
         <v>5.951456773710404</v>
       </c>
       <c r="D360">
-        <v>9.016963301981855</v>
+        <v>9.016963301981857</v>
       </c>
       <c r="E360">
         <v>10.23356212147673</v>
@@ -6494,10 +6494,10 @@
         <v>640.0993942863043</v>
       </c>
       <c r="C361">
-        <v>605.0089555923448</v>
+        <v>605.0089555923449</v>
       </c>
       <c r="D361">
-        <v>778.0483470757408</v>
+        <v>778.0483470757409</v>
       </c>
       <c r="E361">
         <v>987.0424788881141</v>
@@ -6508,7 +6508,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>2.750477236179922</v>
+        <v>2.750477236179923</v>
       </c>
       <c r="C362">
         <v>2.4917550082458</v>
@@ -6545,13 +6545,13 @@
         <v>283.0541576379325</v>
       </c>
       <c r="C364">
-        <v>267.4741165118542</v>
+        <v>267.4741165118541</v>
       </c>
       <c r="D364">
         <v>335.4551849112638</v>
       </c>
       <c r="E364">
-        <v>391.2261902228611</v>
+        <v>391.226190222861</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6619,7 +6619,7 @@
         <v>27.87677643530932</v>
       </c>
       <c r="E368">
-        <v>50.98093915996601</v>
+        <v>50.98093915996603</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6633,7 +6633,7 @@
         <v>2.104461523124603</v>
       </c>
       <c r="D369">
-        <v>3.484682236273221</v>
+        <v>3.484682236273222</v>
       </c>
       <c r="E369">
         <v>6.407573005804568</v>
@@ -6661,7 +6661,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>4.512912832388158</v>
+        <v>4.512912832388157</v>
       </c>
       <c r="C371">
         <v>2.827870595644024</v>
@@ -6698,7 +6698,7 @@
         <v>388.8580077167978</v>
       </c>
       <c r="C373">
-        <v>399.5017803795243</v>
+        <v>399.5017803795242</v>
       </c>
       <c r="D373">
         <v>471.4057834191206</v>
@@ -6735,7 +6735,7 @@
         <v>10.16231635609833</v>
       </c>
       <c r="D375">
-        <v>14.71814810072437</v>
+        <v>14.71814810072438</v>
       </c>
       <c r="E375">
         <v>13.77598423095785</v>
@@ -6766,7 +6766,7 @@
         <v>46.8991046143129</v>
       </c>
       <c r="C377">
-        <v>44.99098584889849</v>
+        <v>44.99098584889848</v>
       </c>
       <c r="D377">
         <v>66.74217715668546</v>
@@ -6780,7 +6780,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>493.086537486457</v>
+        <v>493.0865374864569</v>
       </c>
       <c r="C378">
         <v>462.965448922486</v>
@@ -6797,10 +6797,10 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>6.366971072278497</v>
+        <v>6.366971072278496</v>
       </c>
       <c r="C379">
-        <v>6.341992450992958</v>
+        <v>6.341992450992957</v>
       </c>
       <c r="D379">
         <v>7.061479968483955</v>
@@ -6868,10 +6868,10 @@
         <v>184.8207113646934</v>
       </c>
       <c r="C383">
-        <v>185.9944401492292</v>
+        <v>185.9944401492291</v>
       </c>
       <c r="D383">
-        <v>244.7285495662662</v>
+        <v>244.7285495662661</v>
       </c>
       <c r="E383">
         <v>270.3595254843854</v>
@@ -6908,7 +6908,7 @@
         <v>48.61324799628584</v>
       </c>
       <c r="E385">
-        <v>80.64087594397897</v>
+        <v>80.64087594397898</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6922,7 +6922,7 @@
         <v>42.8193354227533</v>
       </c>
       <c r="D386">
-        <v>53.78702825578897</v>
+        <v>53.78702825578898</v>
       </c>
       <c r="E386">
         <v>52.11101557659384</v>
@@ -6939,7 +6939,7 @@
         <v>30.28684700633771</v>
       </c>
       <c r="D387">
-        <v>44.9982981486339</v>
+        <v>44.99829814863391</v>
       </c>
       <c r="E387">
         <v>59.1981136950106</v>
@@ -6953,13 +6953,13 @@
         <v>930.801001283417</v>
       </c>
       <c r="C388">
-        <v>868.3107114433127</v>
+        <v>868.3107114433124</v>
       </c>
       <c r="D388">
         <v>635.9183178985523</v>
       </c>
       <c r="E388">
-        <v>392.1392753417409</v>
+        <v>392.1392753417408</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7004,13 +7004,13 @@
         <v>74.61330671610557</v>
       </c>
       <c r="C391">
-        <v>63.10839671610766</v>
+        <v>63.10839671610764</v>
       </c>
       <c r="D391">
-        <v>57.92161093035712</v>
+        <v>57.92161093035713</v>
       </c>
       <c r="E391">
-        <v>61.99830440185627</v>
+        <v>61.99830440185625</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7024,7 +7024,7 @@
         <v>10.62358856847533</v>
       </c>
       <c r="D392">
-        <v>11.87348788606436</v>
+        <v>11.87348788606437</v>
       </c>
       <c r="E392">
         <v>15.0795871380684</v>
@@ -7044,7 +7044,7 @@
         <v>70.89860817717275</v>
       </c>
       <c r="E393">
-        <v>59.9806142589612</v>
+        <v>59.98061425896119</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7072,7 +7072,7 @@
         <v>64.23253518686663</v>
       </c>
       <c r="C395">
-        <v>58.26708513010463</v>
+        <v>58.26708513010461</v>
       </c>
       <c r="D395">
         <v>59.02923671296401</v>
@@ -7089,7 +7089,7 @@
         <v>20.0514263281753</v>
       </c>
       <c r="C396">
-        <v>16.3147838364293</v>
+        <v>16.31478383642929</v>
       </c>
       <c r="D396">
         <v>16.38131927919576</v>
@@ -7126,7 +7126,7 @@
         <v>11.36096544724639</v>
       </c>
       <c r="D398">
-        <v>10.8189239176153</v>
+        <v>10.81892391761531</v>
       </c>
       <c r="E398">
         <v>9.657809595998266</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>29.03601011931225</v>
+        <v>29.03601011931226</v>
       </c>
       <c r="C400">
-        <v>26.1518259316917</v>
+        <v>26.15182593169171</v>
       </c>
       <c r="D400">
-        <v>21.97558273057342</v>
+        <v>21.97558273057341</v>
       </c>
       <c r="E400">
-        <v>16.51328957038201</v>
+        <v>16.513289570382</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7188,7 +7188,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>25.29865393972508</v>
+        <v>25.29865393972509</v>
       </c>
       <c r="C402">
         <v>15.89648067285006</v>
@@ -7197,7 +7197,7 @@
         <v>13.57860108558791</v>
       </c>
       <c r="E402">
-        <v>14.44551075864126</v>
+        <v>14.44551075864125</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>55.38350078313263</v>
+        <v>55.38350078313264</v>
       </c>
       <c r="C403">
-        <v>43.15051278729131</v>
+        <v>43.15051278729132</v>
       </c>
       <c r="D403">
-        <v>40.86084913965995</v>
+        <v>40.86084913965994</v>
       </c>
       <c r="E403">
-        <v>45.72910957951941</v>
+        <v>45.7291095795194</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,7 +7228,7 @@
         <v>139.9516541270101</v>
       </c>
       <c r="D404">
-        <v>88.50244332825426</v>
+        <v>88.50244332825424</v>
       </c>
       <c r="E404">
         <v>40.51195824697736</v>
@@ -7245,7 +7245,7 @@
         <v>9.099023952530072</v>
       </c>
       <c r="D405">
-        <v>5.966456853590175</v>
+        <v>5.966456853590174</v>
       </c>
       <c r="E405">
         <v>2.842944438384376</v>
@@ -7279,7 +7279,7 @@
         <v>85.89747746052804</v>
       </c>
       <c r="D407">
-        <v>60.8567500085515</v>
+        <v>60.85675000855149</v>
       </c>
       <c r="E407">
         <v>34.20537117090738</v>
@@ -7296,7 +7296,7 @@
         <v>0.3958409099563504</v>
       </c>
       <c r="D408">
-        <v>0.3104936224926097</v>
+        <v>0.3104936224926096</v>
       </c>
       <c r="E408">
         <v>0.2221127998110869</v>
@@ -7307,7 +7307,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>1.431195005319791</v>
+        <v>1.431195005319792</v>
       </c>
       <c r="C409">
         <v>1.187522729869051</v>
@@ -7358,7 +7358,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>1.58175354160603</v>
+        <v>1.581753541606029</v>
       </c>
       <c r="C412">
         <v>1.427980296409017</v>
@@ -7375,7 +7375,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>7.905590441226863</v>
+        <v>7.905590441226862</v>
       </c>
       <c r="C413">
         <v>5.430525420912833</v>
@@ -7384,7 +7384,7 @@
         <v>7.569803885585578</v>
       </c>
       <c r="E413">
-        <v>16.19755617928099</v>
+        <v>16.19755617928098</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7401,7 +7401,7 @@
         <v>9.741839225049169</v>
       </c>
       <c r="E414">
-        <v>9.880645262442316</v>
+        <v>9.880645262442314</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,10 +7409,10 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>99.243236138071</v>
+        <v>99.24323613807104</v>
       </c>
       <c r="C415">
-        <v>88.62230296907126</v>
+        <v>88.62230296907127</v>
       </c>
       <c r="D415">
         <v>101.2184354086634</v>
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>5.155492786393299</v>
+        <v>5.1554927863933</v>
       </c>
       <c r="C416">
-        <v>4.583912222538168</v>
+        <v>4.583912222538169</v>
       </c>
       <c r="D416">
         <v>4.957637652669229</v>
       </c>
       <c r="E416">
-        <v>5.708767195801127</v>
+        <v>5.708767195801125</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7452,7 +7452,7 @@
         <v>37.30627357372973</v>
       </c>
       <c r="E417">
-        <v>27.12185607004114</v>
+        <v>27.12185607004113</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.4978078328350568</v>
+        <v>0.4978078328350569</v>
       </c>
       <c r="C418">
-        <v>0.4107780822821437</v>
+        <v>0.4107780822821438</v>
       </c>
       <c r="D418">
-        <v>0.3486567623713061</v>
+        <v>0.3486567623713059</v>
       </c>
       <c r="E418">
         <v>0.2916328609681842</v>
@@ -7486,7 +7486,7 @@
         <v>35.15034185391973</v>
       </c>
       <c r="E419">
-        <v>31.29828174348303</v>
+        <v>31.29828174348302</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7554,7 +7554,7 @@
         <v>59.52880475260599</v>
       </c>
       <c r="E423">
-        <v>41.37738942358774</v>
+        <v>41.37738942358773</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7639,7 +7639,7 @@
         <v>54.45153588827863</v>
       </c>
       <c r="E428">
-        <v>49.53860558659636</v>
+        <v>49.53860558659637</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7673,7 +7673,7 @@
         <v>27.78010888454946</v>
       </c>
       <c r="E430">
-        <v>20.68869471179387</v>
+        <v>20.68869471179386</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>84.47420864893611</v>
       </c>
       <c r="E432">
-        <v>63.12704283855052</v>
+        <v>63.12704283855051</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7769,7 +7769,7 @@
         <v>22.19936749578433</v>
       </c>
       <c r="C436">
-        <v>18.25421989344682</v>
+        <v>18.25421989344683</v>
       </c>
       <c r="D436">
         <v>17.10902471967292</v>
@@ -7786,7 +7786,7 @@
         <v>37.45247960426103</v>
       </c>
       <c r="C437">
-        <v>35.20932211869228</v>
+        <v>35.20932211869229</v>
       </c>
       <c r="D437">
         <v>32.29125512463435</v>
@@ -7843,7 +7843,7 @@
         <v>21.40656238599356</v>
       </c>
       <c r="E440">
-        <v>11.27257692108399</v>
+        <v>11.27257692108398</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7939,13 +7939,13 @@
         <v>8.489228710299168</v>
       </c>
       <c r="C446">
-        <v>6.141160834655631</v>
+        <v>6.141160834655632</v>
       </c>
       <c r="D446">
         <v>5.079523278032369</v>
       </c>
       <c r="E446">
-        <v>5.304742080510112</v>
+        <v>5.30474208051011</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8004,13 +8004,13 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>9.412973539433732</v>
+        <v>9.412973539433734</v>
       </c>
       <c r="C450">
         <v>6.928644896874594</v>
       </c>
       <c r="D450">
-        <v>8.329966328516425</v>
+        <v>8.329966328516427</v>
       </c>
       <c r="E450">
         <v>10.87272861739718</v>
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>14.87857107845977</v>
+        <v>14.87857107845978</v>
       </c>
       <c r="C451">
-        <v>14.72337040585851</v>
+        <v>14.72337040585852</v>
       </c>
       <c r="D451">
         <v>21.36817449488996</v>
       </c>
       <c r="E451">
-        <v>31.00741124220676</v>
+        <v>31.00741124220677</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>18.47079490236251</v>
       </c>
       <c r="E453">
-        <v>40.26936524961917</v>
+        <v>40.26936524961918</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8092,13 +8092,13 @@
         <v>13.13519119934856</v>
       </c>
       <c r="C455">
-        <v>9.656147713262561</v>
+        <v>9.656147713262559</v>
       </c>
       <c r="D455">
         <v>11.26904088201937</v>
       </c>
       <c r="E455">
-        <v>15.16922236481046</v>
+        <v>15.16922236481047</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8109,13 +8109,13 @@
         <v>15.0811454511039</v>
       </c>
       <c r="C456">
-        <v>13.16747415444895</v>
+        <v>13.16747415444894</v>
       </c>
       <c r="D456">
         <v>15.96447458286077</v>
       </c>
       <c r="E456">
-        <v>21.80575714941504</v>
+        <v>21.80575714941505</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8126,13 +8126,13 @@
         <v>3.891908503510685</v>
       </c>
       <c r="C457">
-        <v>3.511326441186386</v>
+        <v>3.511326441186385</v>
       </c>
       <c r="D457">
         <v>4.225890330757264</v>
       </c>
       <c r="E457">
-        <v>3.792305591202616</v>
+        <v>3.792305591202617</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8143,7 +8143,7 @@
         <v>18.97305395461459</v>
       </c>
       <c r="C458">
-        <v>22.82362186771151</v>
+        <v>22.8236218677115</v>
       </c>
       <c r="D458">
         <v>23.47716850420702</v>
@@ -8163,7 +8163,7 @@
         <v>7.900484492669366</v>
       </c>
       <c r="D459">
-        <v>8.921324031598667</v>
+        <v>8.921324031598669</v>
       </c>
       <c r="E459">
         <v>9.006725779106215</v>
@@ -8194,13 +8194,13 @@
         <v>19.94603108049226</v>
       </c>
       <c r="C461">
-        <v>20.19012703682172</v>
+        <v>20.19012703682171</v>
       </c>
       <c r="D461">
         <v>22.0685383939546</v>
       </c>
       <c r="E461">
-        <v>20.85768075161439</v>
+        <v>20.8576807516144</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8211,7 +8211,7 @@
         <v>3.891908503510685</v>
       </c>
       <c r="C462">
-        <v>3.511326441186386</v>
+        <v>3.511326441186385</v>
       </c>
       <c r="D462">
         <v>3.756346960673123</v>
@@ -8296,7 +8296,7 @@
         <v>12.31456607501194</v>
       </c>
       <c r="C467">
-        <v>14.15351927053699</v>
+        <v>14.15351927053698</v>
       </c>
       <c r="D467">
         <v>14.38342457426228</v>
@@ -8319,7 +8319,7 @@
         <v>9.054311226648288</v>
       </c>
       <c r="E468">
-        <v>21.74545723479435</v>
+        <v>21.74545723479436</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8330,13 +8330,13 @@
         <v>6.680174769920715</v>
       </c>
       <c r="C469">
-        <v>5.196483672655946</v>
+        <v>5.196483672655947</v>
       </c>
       <c r="D469">
         <v>7.605621430384564</v>
       </c>
       <c r="E469">
-        <v>15.30235879485528</v>
+        <v>15.30235879485529</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,7 +8344,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>12.14577230894675</v>
+        <v>12.14577230894676</v>
       </c>
       <c r="C470">
         <v>8.949499658463019</v>
@@ -8370,7 +8370,7 @@
         <v>5.650631082745895</v>
       </c>
       <c r="E471">
-        <v>6.313743849272086</v>
+        <v>6.313743849272085</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8387,7 +8387,7 @@
         <v>5.164977070925544</v>
       </c>
       <c r="E472">
-        <v>6.162496585704252</v>
+        <v>6.162496585704253</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8432,13 +8432,13 @@
         <v>14.29274345618991</v>
       </c>
       <c r="C475">
-        <v>11.56957598880432</v>
+        <v>11.56957598880433</v>
       </c>
       <c r="D475">
         <v>11.40601647978195</v>
       </c>
       <c r="E475">
-        <v>11.49052764688508</v>
+        <v>11.49052764688507</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,7 +8449,7 @@
         <v>26.43842421471051</v>
       </c>
       <c r="C476">
-        <v>23.10538696657122</v>
+        <v>23.10538696657123</v>
       </c>
       <c r="D476">
         <v>22.79730126583414</v>
@@ -8466,13 +8466,13 @@
         <v>5.665376617437967</v>
       </c>
       <c r="C477">
-        <v>6.646755154767065</v>
+        <v>6.646755154767066</v>
       </c>
       <c r="D477">
         <v>7.495003155890676</v>
       </c>
       <c r="E477">
-        <v>6.534014049506054</v>
+        <v>6.534014049506056</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8486,7 +8486,7 @@
         <v>128.6847268692454</v>
       </c>
       <c r="D478">
-        <v>93.32051076713302</v>
+        <v>93.32051076713303</v>
       </c>
       <c r="E478">
         <v>51.06158740961182</v>
@@ -8554,7 +8554,7 @@
         <v>104.6926591478606</v>
       </c>
       <c r="D482">
-        <v>84.62605324224485</v>
+        <v>84.62605324224486</v>
       </c>
       <c r="E482">
         <v>63.46907593905021</v>
@@ -8605,7 +8605,7 @@
         <v>24.12402085284484</v>
       </c>
       <c r="D485">
-        <v>23.15837827636909</v>
+        <v>23.1583782763691</v>
       </c>
       <c r="E485">
         <v>32.6283329635532</v>
@@ -8622,7 +8622,7 @@
         <v>85.66987910144653</v>
       </c>
       <c r="D486">
-        <v>67.63717286455224</v>
+        <v>67.63717286455226</v>
       </c>
       <c r="E486">
         <v>48.66696807776993</v>
@@ -8636,7 +8636,7 @@
         <v>61.35668599640345</v>
       </c>
       <c r="C487">
-        <v>47.11038105015804</v>
+        <v>47.11038105015805</v>
       </c>
       <c r="D487">
         <v>39.63201316751933</v>
@@ -8670,13 +8670,13 @@
         <v>14.13002470946307</v>
       </c>
       <c r="C489">
-        <v>7.995439954509969</v>
+        <v>7.995439954509967</v>
       </c>
       <c r="D489">
         <v>6.869800381882186</v>
       </c>
       <c r="E489">
-        <v>7.145237249012103</v>
+        <v>7.145237249012104</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8772,7 +8772,7 @@
         <v>0.3600641679098052</v>
       </c>
       <c r="C495">
-        <v>0.306362071240026</v>
+        <v>0.3063620712400259</v>
       </c>
       <c r="D495">
         <v>0.3022172996737025</v>
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>9.218956218938132</v>
+        <v>9.218956218938128</v>
       </c>
       <c r="C500">
         <v>9.223193287667327</v>
@@ -8877,7 +8877,7 @@
         <v>71.07901562577676</v>
       </c>
       <c r="D501">
-        <v>69.03391732156518</v>
+        <v>69.0339173215652</v>
       </c>
       <c r="E501">
         <v>61.23785260132503</v>
